--- a/biology/Zoologie/Dromiceiomimus/Dromiceiomimus.xlsx
+++ b/biology/Zoologie/Dromiceiomimus/Dromiceiomimus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dromiceiomimus brevitertius
-Dromiceiomimus est un genre éteint de dinosaures théropodes ornithomimosauriens, de la famille des ornithomimidés, dont la validité est remise en question par plusieurs équipes de paléontologues qui le considèrent comme un Ornithomimus[3],[2],[4].
-Dromiceiomimus a été découvert en Alberta (Canada) dans des sédiments de la formation de Horseshoe Canyon datés du Campanien supérieur (Crétacé supérieur)[1]. 
-Une seule espèce est rattachée au genre : Dromiceiomimus brevitertius, décrite par Dale Russell en 1972[1].
+Dromiceiomimus est un genre éteint de dinosaures théropodes ornithomimosauriens, de la famille des ornithomimidés, dont la validité est remise en question par plusieurs équipes de paléontologues qui le considèrent comme un Ornithomimus.
+Dromiceiomimus a été découvert en Alberta (Canada) dans des sédiments de la formation de Horseshoe Canyon datés du Campanien supérieur (Crétacé supérieur). 
+Une seule espèce est rattachée au genre : Dromiceiomimus brevitertius, décrite par Dale Russell en 1972.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre combine l'ancien nom de genre de l'émeu moderne « Dromiceius », « émeu », et le mot du grec ancien  « Mĩmos », « imitateur », pour donner « qui imite l'émeu ». 
 </t>
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dromiceiomimus mesurait environ 3,50 mètres de long avec un poids estimé de 100 et 150 kilogrammes[5]. Il possédait de longues pattes arrière, de longs bras minces et un crâne léger avec de grandes orbites et un bec sans dents. Son fémur mesure 46,8 centimètres.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dromiceiomimus mesurait environ 3,50 mètres de long avec un poids estimé de 100 et 150 kilogrammes. Il possédait de longues pattes arrière, de longs bras minces et un crâne léger avec de grandes orbites et un bec sans dents. Son fémur mesure 46,8 centimètres.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Validité du genre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après son érection comme un nouveau genre en 1972 par Dale Russell[1], il a été considéré comme un synonyme plus récent du genre Ornithomimus par plusieurs équipes de paléontologues ; en 1981 par Nicholls et Russell[3], Alifanov and Saveliev (2015)[6], Claessens and Loewen (2016)[6], McFeeters et al. (2016)[6], puis, plus précisément, avec Ornithomimus edmontonicus par Makovicky et ses collègues en 2004[2] et Kobayashi et ses collègues en 2006[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après son érection comme un nouveau genre en 1972 par Dale Russell, il a été considéré comme un synonyme plus récent du genre Ornithomimus par plusieurs équipes de paléontologues ; en 1981 par Nicholls et Russell, Alifanov and Saveliev (2015), Claessens and Loewen (2016), McFeeters et al. (2016), puis, plus précisément, avec Ornithomimus edmontonicus par Makovicky et ses collègues en 2004 et Kobayashi et ses collègues en 2006.
 </t>
         </is>
       </c>
